--- a/exceldata.xlsx
+++ b/exceldata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nik Shah\eclipse-workspace\Selenium-Maven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivani\eclipse-workspace\Selenium_Maven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA50844-F986-4F2B-8648-CA4B18D0E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC336AC-DD1D-4B06-87E7-914F07BB75EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20775" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -33,10 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>xyz@abc.com</t>
+    <t>standard_user</t>
   </si>
   <si>
-    <t>Abc@12345</t>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>sauce</t>
   </si>
 </sst>
 </file>
@@ -365,19 +368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,18 +388,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A99FE8CA-7CBA-42C3-BA69-DB413A693C3E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{82EB020A-236E-4F52-AB89-63DB138954CB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="xyz@abc.com" xr:uid="{A99FE8CA-7CBA-42C3-BA69-DB413A693C3E}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Abc@12345" xr:uid="{82EB020A-236E-4F52-AB89-63DB138954CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
